--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/119.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/119.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1856655492369548</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.079781257197743</v>
+        <v>-1.9885802282809</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08318758343014178</v>
+        <v>-0.08150023493210744</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4019752500862914</v>
+        <v>-0.3649448762385714</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1864963715232292</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.09058375042723</v>
+        <v>-1.993756390161297</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02781831280014748</v>
+        <v>-0.04370173975319272</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3856322095498264</v>
+        <v>-0.3460802570697826</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1933459668726903</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.141794462538748</v>
+        <v>-2.039761034029113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09191732175719584</v>
+        <v>0.05927531321966217</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.463963271121355</v>
+        <v>-0.4137678013430761</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1984818238787036</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.304566140901134</v>
+        <v>-2.193535619094144</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2689157719474582</v>
+        <v>0.2112956539740039</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.528172233136574</v>
+        <v>-0.4699209334954781</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1907928146249331</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.068804047845792</v>
+        <v>-1.993273166291057</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5127722583340886</v>
+        <v>0.4292044351459924</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5914903003291367</v>
+        <v>-0.5224128971717348</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1634223718529365</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.931636938529604</v>
+        <v>-1.854425791562881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7127057411408232</v>
+        <v>0.6054426341006666</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6032513712034955</v>
+        <v>-0.5313989723352405</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1177197335265798</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.54048846482902</v>
+        <v>-1.488368756674951</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000288478717187</v>
+        <v>0.8634322381774557</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.6404784974413781</v>
+        <v>-0.5567107738248768</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.06237693594382184</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.013126737399755</v>
+        <v>-0.9736755221434749</v>
       </c>
       <c r="F9" t="n">
-        <v>1.24340989817417</v>
+        <v>1.065684251149866</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6270961868720797</v>
+        <v>-0.5346178414383004</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.008803071096240022</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.441113235537433</v>
+        <v>-0.3870740110649378</v>
       </c>
       <c r="F10" t="n">
-        <v>1.346470374160453</v>
+        <v>1.137415450545781</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5823058987563473</v>
+        <v>-0.4904052183400853</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03554684076615434</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2563047307475971</v>
+        <v>0.3043170360046319</v>
       </c>
       <c r="F11" t="n">
-        <v>1.312534521905211</v>
+        <v>1.102155848209525</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5064712315112014</v>
+        <v>-0.4161902167707579</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06806614325355255</v>
       </c>
       <c r="E12" t="n">
-        <v>1.046360018397658</v>
+        <v>1.089639248156941</v>
       </c>
       <c r="F12" t="n">
-        <v>1.32781824757304</v>
+        <v>1.110051128121969</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3585386184148776</v>
+        <v>-0.2808025360712005</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09135366850715984</v>
       </c>
       <c r="E13" t="n">
-        <v>1.940772773789954</v>
+        <v>1.965415617153038</v>
       </c>
       <c r="F13" t="n">
-        <v>1.139480563632928</v>
+        <v>0.9275200007203346</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1831881662446171</v>
+        <v>-0.1113562296249389</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1119656828631013</v>
       </c>
       <c r="E14" t="n">
-        <v>2.860377705218668</v>
+        <v>2.857747519266975</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9435466634134182</v>
+        <v>0.7335772346892703</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.003589436465965993</v>
+        <v>0.06101775238694204</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1364994357574781</v>
       </c>
       <c r="E15" t="n">
-        <v>3.89895014987353</v>
+        <v>3.865716310146388</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7690713658746008</v>
+        <v>0.5554439167125502</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1871376085002809</v>
+        <v>0.2490610947513713</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1732546610046856</v>
       </c>
       <c r="E16" t="n">
-        <v>4.813107401123423</v>
+        <v>4.756321513284258</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5446004989859098</v>
+        <v>0.3255458318936143</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4445967681331918</v>
+        <v>0.4905282201118672</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.229087837847677</v>
       </c>
       <c r="E17" t="n">
-        <v>5.649777265050803</v>
+        <v>5.559370328780656</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3849099630534698</v>
+        <v>0.1639759171303413</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6854453039790166</v>
+        <v>0.726649976536426</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3048751435401712</v>
       </c>
       <c r="E18" t="n">
-        <v>6.508053689456278</v>
+        <v>6.372514902921076</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483097048160356</v>
+        <v>-0.07346014526050353</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8233970618271728</v>
+        <v>0.8650581999297594</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3927050552079493</v>
       </c>
       <c r="E19" t="n">
-        <v>7.121168765623564</v>
+        <v>6.969017781282155</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1289049688083203</v>
+        <v>-0.3479596359006157</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080871961651297</v>
+        <v>1.117563921387937</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4866489825808262</v>
       </c>
       <c r="E20" t="n">
-        <v>7.7125844141846</v>
+        <v>7.516667828175425</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4003886388120203</v>
+        <v>-0.6217476698978999</v>
       </c>
       <c r="G20" t="n">
-        <v>1.313227090318583</v>
+        <v>1.339709962034467</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5848263607744928</v>
       </c>
       <c r="E21" t="n">
-        <v>8.028414498911825</v>
+        <v>7.841260477350931</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7357995214082265</v>
+        <v>-0.939080155876407</v>
       </c>
       <c r="G21" t="n">
-        <v>1.550619080174031</v>
+        <v>1.563840840792957</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.686930650985798</v>
       </c>
       <c r="E22" t="n">
-        <v>8.235300424177346</v>
+        <v>8.062838297094672</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.9740761100098458</v>
+        <v>-1.158190700647509</v>
       </c>
       <c r="G22" t="n">
-        <v>1.80362219167454</v>
+        <v>1.800182959894498</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7897141482127167</v>
       </c>
       <c r="E23" t="n">
-        <v>8.414362413435633</v>
+        <v>8.239841469342299</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.190610772488939</v>
+        <v>-1.371007529962089</v>
       </c>
       <c r="G23" t="n">
-        <v>1.991580537006419</v>
+        <v>1.967372122920815</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8866846601511079</v>
       </c>
       <c r="E24" t="n">
-        <v>8.498607064845888</v>
+        <v>8.332384349560051</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.392643996803489</v>
+        <v>-1.555025318423792</v>
       </c>
       <c r="G24" t="n">
-        <v>2.119211451476207</v>
+        <v>2.084288689231908</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9729562634976598</v>
       </c>
       <c r="E25" t="n">
-        <v>8.511879194076696</v>
+        <v>8.34770427766767</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.551013930693157</v>
+        <v>-1.699704433996387</v>
       </c>
       <c r="G25" t="n">
-        <v>2.212813646562595</v>
+        <v>2.18106568088596</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.044785489687871</v>
       </c>
       <c r="E26" t="n">
-        <v>8.462653320077138</v>
+        <v>8.309647643352863</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.704912076259211</v>
+        <v>-1.836994316804037</v>
       </c>
       <c r="G26" t="n">
-        <v>2.264406845320588</v>
+        <v>2.225377467188817</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.100659386738742</v>
       </c>
       <c r="E27" t="n">
-        <v>8.407268309255931</v>
+        <v>8.244909810912887</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.786485617220619</v>
+        <v>-1.906611608520045</v>
       </c>
       <c r="G27" t="n">
-        <v>2.346534441012694</v>
+        <v>2.292030880899416</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.13826065033857</v>
       </c>
       <c r="E28" t="n">
-        <v>8.298454793381293</v>
+        <v>8.139170354382149</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.81891828121502</v>
+        <v>-1.930617761148562</v>
       </c>
       <c r="G28" t="n">
-        <v>2.347467834351626</v>
+        <v>2.286558016414653</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.157782046482573</v>
       </c>
       <c r="E29" t="n">
-        <v>8.121423288789483</v>
+        <v>7.970660589313061</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.790706349494387</v>
+        <v>-1.88836951391373</v>
       </c>
       <c r="G29" t="n">
-        <v>2.308043377420407</v>
+        <v>2.244157089325055</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.159750481540961</v>
       </c>
       <c r="E30" t="n">
-        <v>7.884731737443014</v>
+        <v>7.738511657150665</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.76716138446841</v>
+        <v>-1.86785689672494</v>
       </c>
       <c r="G30" t="n">
-        <v>2.214411275970715</v>
+        <v>2.145739969746608</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.146224506558517</v>
       </c>
       <c r="E31" t="n">
-        <v>7.667677648653892</v>
+        <v>7.514572808724973</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.731853774548954</v>
+        <v>-1.824326610915809</v>
       </c>
       <c r="G31" t="n">
-        <v>2.170653544398556</v>
+        <v>2.09661011091345</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.120258674197161</v>
       </c>
       <c r="E32" t="n">
-        <v>7.49099400228789</v>
+        <v>7.327927195340259</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.650880721882322</v>
+        <v>-1.742258040940752</v>
       </c>
       <c r="G32" t="n">
-        <v>2.085023756161556</v>
+        <v>2.017498335857756</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.083697070957863</v>
       </c>
       <c r="E33" t="n">
-        <v>7.184976352762852</v>
+        <v>7.017363778592905</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.617572116246918</v>
+        <v>-1.703336483118789</v>
       </c>
       <c r="G33" t="n">
-        <v>1.961063454282641</v>
+        <v>1.900891851313559</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.039680687516308</v>
       </c>
       <c r="E34" t="n">
-        <v>6.877853741814662</v>
+        <v>6.717061392497311</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.53711219381383</v>
+        <v>-1.632349007757689</v>
       </c>
       <c r="G34" t="n">
-        <v>1.87159620742791</v>
+        <v>1.815035404323091</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9899570522177155</v>
       </c>
       <c r="E35" t="n">
-        <v>6.555733876678719</v>
+        <v>6.3810146061761</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.562218585808136</v>
+        <v>-1.650384118849552</v>
       </c>
       <c r="G35" t="n">
-        <v>1.728330561026243</v>
+        <v>1.67941319477446</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9371416443613731</v>
       </c>
       <c r="E36" t="n">
-        <v>6.181732767285584</v>
+        <v>6.004233779014748</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.582220433792065</v>
+        <v>-1.662054683624436</v>
       </c>
       <c r="G36" t="n">
-        <v>1.634377359675805</v>
+        <v>1.589700400936806</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8815308337729908</v>
       </c>
       <c r="E37" t="n">
-        <v>5.782698457787283</v>
+        <v>5.605314372912301</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.559081565699384</v>
+        <v>-1.63886151187207</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497436122103524</v>
+        <v>1.460182237540579</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8248105761607423</v>
       </c>
       <c r="E38" t="n">
-        <v>5.439338778628508</v>
+        <v>5.263634172155954</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.579242389614564</v>
+        <v>-1.646880352285536</v>
       </c>
       <c r="G38" t="n">
-        <v>1.395088676779189</v>
+        <v>1.355078684734847</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7673256474972463</v>
       </c>
       <c r="E39" t="n">
-        <v>5.080857497771397</v>
+        <v>4.897304831960039</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.605111393873141</v>
+        <v>-1.66043816598686</v>
       </c>
       <c r="G39" t="n">
-        <v>1.30770543124106</v>
+        <v>1.268822436887569</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7095015305506425</v>
       </c>
       <c r="E40" t="n">
-        <v>4.705877348484814</v>
+        <v>4.52691767046941</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.634706101391836</v>
+        <v>-1.686159212448034</v>
       </c>
       <c r="G40" t="n">
-        <v>1.249553294804606</v>
+        <v>1.208753145161371</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6518358237543875</v>
       </c>
       <c r="E41" t="n">
-        <v>4.39779458587263</v>
+        <v>4.214001095135712</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.715032232199614</v>
+        <v>-1.756703601426489</v>
       </c>
       <c r="G41" t="n">
-        <v>1.199960674349785</v>
+        <v>1.155319918050577</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5940774617130128</v>
       </c>
       <c r="E42" t="n">
-        <v>3.978252381242902</v>
+        <v>3.799495751694146</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.731830951271695</v>
+        <v>-1.758440531526844</v>
       </c>
       <c r="G42" t="n">
-        <v>1.12152415349713</v>
+        <v>1.077380787240252</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5366954897821424</v>
       </c>
       <c r="E43" t="n">
-        <v>3.676635689181021</v>
+        <v>3.505577587154548</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.75139286091122</v>
+        <v>-1.766293312923013</v>
       </c>
       <c r="G43" t="n">
-        <v>1.037333018736998</v>
+        <v>0.9945291427523475</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4791145561467207</v>
       </c>
       <c r="E44" t="n">
-        <v>3.377787696753509</v>
+        <v>3.213164184894913</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.788966271355789</v>
+        <v>-1.792915485331132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9406252839242841</v>
+        <v>0.8992569133782594</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4223540168672744</v>
       </c>
       <c r="E45" t="n">
-        <v>3.125787235433269</v>
+        <v>2.957634772704716</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.783808210695286</v>
+        <v>-1.781103258835331</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8856432219981297</v>
+        <v>0.8436106153829162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3652118282030157</v>
       </c>
       <c r="E46" t="n">
-        <v>2.925479136075664</v>
+        <v>2.746270763039096</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.739214674969717</v>
+        <v>-1.731971825983052</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8212296374971417</v>
+        <v>0.7791624024612596</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3082514770335937</v>
       </c>
       <c r="E47" t="n">
-        <v>2.650842705771999</v>
+        <v>2.489116963115718</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.721055216367271</v>
+        <v>-1.705969030099164</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7323605179085049</v>
+        <v>0.6952687573150542</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2509942282242809</v>
       </c>
       <c r="E48" t="n">
-        <v>2.454913527609853</v>
+        <v>2.293856743080124</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.644922272498638</v>
+        <v>-1.623882358904212</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6412814754735618</v>
+        <v>0.5990662826402774</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1952002015851863</v>
       </c>
       <c r="E49" t="n">
-        <v>2.276619659682761</v>
+        <v>2.117338368721859</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.599789635224023</v>
+        <v>-1.580194671182951</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6066499067667042</v>
+        <v>0.5640396351339733</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1426445755451756</v>
       </c>
       <c r="E50" t="n">
-        <v>2.180365242376981</v>
+        <v>2.019541412677205</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.531237167443575</v>
+        <v>-1.506709227476346</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5396360426773273</v>
+        <v>0.4968620730559812</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09474335829535498</v>
       </c>
       <c r="E51" t="n">
-        <v>2.014877594020791</v>
+        <v>1.849459202505937</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.52282010019242</v>
+        <v>-1.492461206390332</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4718446131420281</v>
+        <v>0.4305407773799767</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05181601799951083</v>
       </c>
       <c r="E52" t="n">
-        <v>1.868959725399732</v>
+        <v>1.70302348159397</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.464477507442288</v>
+        <v>-1.444175808815752</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4063874539636176</v>
+        <v>0.3707973076118878</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.01295428420792464</v>
       </c>
       <c r="E53" t="n">
-        <v>1.782191921338031</v>
+        <v>1.622649343202993</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.411261494970233</v>
+        <v>-1.393353879427195</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3722674414711826</v>
+        <v>0.3374831929095587</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02255230510712254</v>
       </c>
       <c r="E54" t="n">
-        <v>1.682457347755056</v>
+        <v>1.514964399038328</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.312055004802454</v>
+        <v>-1.302287429145223</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3332679697027155</v>
+        <v>0.2959306621263419</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.05643754459160429</v>
       </c>
       <c r="E55" t="n">
-        <v>1.55146432844217</v>
+        <v>1.386356018694213</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.280693460820099</v>
+        <v>-1.269776851204318</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2896031052587131</v>
+        <v>0.2554594824794586</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08953462300343328</v>
       </c>
       <c r="E56" t="n">
-        <v>1.507857702705656</v>
+        <v>1.341074636612635</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.257632506673922</v>
+        <v>-1.247099957723739</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2710658820671549</v>
+        <v>0.2356835062394368</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1231747580785559</v>
       </c>
       <c r="E57" t="n">
-        <v>1.461858567904764</v>
+        <v>1.283328597109476</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.233199794863532</v>
+        <v>-1.223759615183531</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2171651712773342</v>
+        <v>0.1878207327989254</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1580593541685774</v>
       </c>
       <c r="E58" t="n">
-        <v>1.36596145293952</v>
+        <v>1.194700302446398</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.24753753503946</v>
+        <v>-1.234354337889006</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2073401439221753</v>
+        <v>0.1752773744212803</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1944798786133791</v>
       </c>
       <c r="E59" t="n">
-        <v>1.308239023723181</v>
+        <v>1.143607641768978</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.270108969238912</v>
+        <v>-1.250553355675872</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2031485310021516</v>
+        <v>0.1668878525047476</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2329586835533111</v>
       </c>
       <c r="E60" t="n">
-        <v>1.244807627153885</v>
+        <v>1.080034583478765</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.268014736798021</v>
+        <v>-1.247758684726003</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1647692227674769</v>
+        <v>0.1305028264967609</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2726719040501041</v>
       </c>
       <c r="E61" t="n">
-        <v>1.229139840820457</v>
+        <v>1.059776957387625</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.275035649088583</v>
+        <v>-1.250569095867085</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1525768706538818</v>
+        <v>0.1197270915923364</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3132168956063348</v>
       </c>
       <c r="E62" t="n">
-        <v>1.161414520088253</v>
+        <v>0.9966713827764376</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.268516848897716</v>
+        <v>-1.250216515583914</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1460494133578478</v>
+        <v>0.1157479712536883</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.353648579303065</v>
       </c>
       <c r="E63" t="n">
-        <v>1.109380595976295</v>
+        <v>0.9479413248000897</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.335359931912432</v>
+        <v>-1.308393836326309</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1136655439562074</v>
+        <v>0.08298476324381443</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3943889395545644</v>
       </c>
       <c r="E64" t="n">
-        <v>1.045517918167762</v>
+        <v>0.8851584241087691</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.353561102021593</v>
+        <v>-1.328454710027286</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08904473686082208</v>
+        <v>0.06009537718185984</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4352509827108366</v>
       </c>
       <c r="E65" t="n">
-        <v>1.003327909640418</v>
+        <v>0.8434972860061826</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.407828559266676</v>
+        <v>-1.381263051546924</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03768921499014454</v>
+        <v>0.01502491366253594</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4762654061430159</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9497766310955263</v>
+        <v>0.7896831462680334</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.469575755376181</v>
+        <v>-1.435017378558464</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0008067989398268281</v>
+        <v>-0.01827660888682271</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5164663861102129</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8768161227658755</v>
+        <v>0.7321920978625257</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.55962066724843</v>
+        <v>-1.515855065580664</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.03016202727176421</v>
+        <v>-0.05004031475467059</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5543295315422815</v>
       </c>
       <c r="E68" t="n">
-        <v>0.802396498710779</v>
+        <v>0.6746569769216216</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.609693363535247</v>
+        <v>-1.568150276866758</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05622778392050359</v>
+        <v>-0.074080308794296</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5883499563189146</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7052606306970709</v>
+        <v>0.590635836226591</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.631876802021298</v>
+        <v>-1.596407068132348</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06374529924383568</v>
+        <v>-0.07932021844910599</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6165955287553316</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5877663993684598</v>
+        <v>0.4878791459307182</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.721592743897195</v>
+        <v>-1.679592404673968</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09851538163336787</v>
+        <v>-0.110466908821404</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6380059924268838</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4296073840410454</v>
+        <v>0.3517359360529365</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.787156936375854</v>
+        <v>-1.745040906747211</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1255349938696155</v>
+        <v>-0.1336018418662815</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6509022430313767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3033993828569136</v>
+        <v>0.2386851607037572</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.907540279801612</v>
+        <v>-1.852056892785324</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.149957474555717</v>
+        <v>-0.1562519770217984</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6544747753729981</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1867204934331363</v>
+        <v>0.1400980470602099</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.011172911738489</v>
+        <v>-1.945060960605618</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.177712153721612</v>
+        <v>-0.1838949008300811</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.647989250044453</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04212322685484858</v>
+        <v>0.007156392075153803</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.052161156666719</v>
+        <v>-1.979745258953039</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2123626106579253</v>
+        <v>-0.2136359921270576</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6319418249491112</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.04314138894600968</v>
+        <v>-0.06750720494374432</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.14823534878311</v>
+        <v>-2.066579958827394</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2517902156273862</v>
+        <v>-0.2473357415141053</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6076734095497434</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.14380148577231</v>
+        <v>-0.1530551441864367</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.160352934988444</v>
+        <v>-2.088571366980647</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2693137705048268</v>
+        <v>-0.2613445116936814</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5763463674907017</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2519649317498506</v>
+        <v>-0.2414111335415295</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.182439571298535</v>
+        <v>-2.110936604675208</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2911438416981461</v>
+        <v>-0.2792914777147519</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5393567788889994</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3111449026725139</v>
+        <v>-0.2845392574651683</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.136464046784463</v>
+        <v>-2.065791375247623</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2684260237204132</v>
+        <v>-0.2598161391268984</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4976683725044439</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3556203869639861</v>
+        <v>-0.3158889963041142</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.16138942657982</v>
+        <v>-2.085904978589164</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2841048281876894</v>
+        <v>-0.2665954394823405</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4530066608676976</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3798051907627712</v>
+        <v>-0.3275572000503161</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.103966848006089</v>
+        <v>-2.039883807520574</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2570017929380128</v>
+        <v>-0.2387101167293775</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4059052760156859</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3850844508956137</v>
+        <v>-0.3165170299335131</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.075300811768961</v>
+        <v>-2.019748954920896</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2593596735817212</v>
+        <v>-0.2372384088509614</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3573429092010347</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3228367167055354</v>
+        <v>-0.2424751704675288</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.011909552687257</v>
+        <v>-1.958250453832556</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2724964371680968</v>
+        <v>-0.2511023692713779</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3076274397731187</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1704512035150519</v>
+        <v>-0.08160569421323459</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.947026123478561</v>
+        <v>-1.891888233659398</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2225118859520722</v>
+        <v>-0.2031719130086506</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2579107262161165</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.0303792419105037</v>
+        <v>0.06740197394293763</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.815453865129037</v>
+        <v>-1.769456304347267</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1672858510621162</v>
+        <v>-0.1547771211051397</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2090324590999679</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1976331680011139</v>
+        <v>0.2794081834100486</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.618200936885877</v>
+        <v>-1.587119568307113</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1430758629573903</v>
+        <v>-0.1278267657102293</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.161501305320864</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4821717525968819</v>
+        <v>0.5478130720124844</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.445712051478141</v>
+        <v>-1.416503765653725</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05809142256012361</v>
+        <v>-0.04252437345045981</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1165494555786568</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7852459863650867</v>
+        <v>0.8377820225767397</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.195801887550989</v>
+        <v>-1.183809435865799</v>
       </c>
       <c r="G87" t="n">
-        <v>0.009134934110628767</v>
+        <v>0.01906856878515741</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07549827537982953</v>
       </c>
       <c r="E88" t="n">
-        <v>1.044187872010263</v>
+        <v>1.082765506654221</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.02415746340183</v>
+        <v>-1.009624544854861</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06434365479025039</v>
+        <v>0.07012660104190911</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04028197464404606</v>
       </c>
       <c r="E89" t="n">
-        <v>1.314415474755165</v>
+        <v>1.336782286468848</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7336934838239261</v>
+        <v>-0.7475464261104935</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1235440879614906</v>
+        <v>0.1247230282833448</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0124422826895868</v>
       </c>
       <c r="E90" t="n">
-        <v>1.560453551643918</v>
+        <v>1.559844406243975</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4460194531385272</v>
+        <v>-0.47304536145126</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1586919349401349</v>
+        <v>0.1569573658684616</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.00538522780246564</v>
       </c>
       <c r="E91" t="n">
-        <v>1.757413712330516</v>
+        <v>1.745150529356462</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.145408559295158</v>
+        <v>-0.1855476209074468</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1339515023915307</v>
+        <v>0.1259208568346546</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01215001206020548</v>
       </c>
       <c r="E92" t="n">
-        <v>1.825502631479741</v>
+        <v>1.803768575452821</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06647959873785543</v>
+        <v>0.01648245536886038</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1607979725244352</v>
+        <v>0.1464303259852026</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.007224251567321853</v>
       </c>
       <c r="E93" t="n">
-        <v>1.81860370567108</v>
+        <v>1.796534383571323</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2799370538348056</v>
+        <v>0.2274671264262472</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1060315512178991</v>
+        <v>0.1001415716659919</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.008115006837774216</v>
       </c>
       <c r="E94" t="n">
-        <v>1.756060055886197</v>
+        <v>1.729811713019387</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4617378363641563</v>
+        <v>0.4061639432483929</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1154268713529429</v>
+        <v>0.1103380675337778</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03102270853270013</v>
       </c>
       <c r="E95" t="n">
-        <v>1.725831018661617</v>
+        <v>1.695468189811727</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5535503717096255</v>
+        <v>0.5009482266948778</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05346560864294134</v>
+        <v>0.04849643027699507</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.05654717174695603</v>
       </c>
       <c r="E96" t="n">
-        <v>1.626068112734459</v>
+        <v>1.58860330960926</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6148820267711067</v>
+        <v>0.5653822734444427</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02461675790742188</v>
+        <v>-0.02677788616096773</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07957089443143663</v>
       </c>
       <c r="E97" t="n">
-        <v>1.580216935730969</v>
+        <v>1.543705988193279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6167110369900581</v>
+        <v>0.5683996680999761</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05150887459484414</v>
+        <v>-0.04849305395843202</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09628341304653279</v>
       </c>
       <c r="E98" t="n">
-        <v>1.471870903535358</v>
+        <v>1.425294103716949</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6326243703064081</v>
+        <v>0.5849284428927547</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1169014989892812</v>
+        <v>-0.1137534607466798</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1046151168228537</v>
       </c>
       <c r="E99" t="n">
-        <v>1.379293394896937</v>
+        <v>1.340007451648393</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6445475651502608</v>
+        <v>0.5924916047706045</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1206460904788555</v>
+        <v>-0.1151826701088209</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1091017817556558</v>
       </c>
       <c r="E100" t="n">
-        <v>1.289802537755386</v>
+        <v>1.241930320200147</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6527733890781782</v>
+        <v>0.6002121685605843</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.156851678307014</v>
+        <v>-0.1541837158964093</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1138404376956402</v>
       </c>
       <c r="E101" t="n">
-        <v>1.186905759757718</v>
+        <v>1.142342130395452</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5831419311900784</v>
+        <v>0.5356584963578005</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1988701187501358</v>
+        <v>-0.1908630834800792</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1272271998484669</v>
       </c>
       <c r="E102" t="n">
-        <v>1.089140284095489</v>
+        <v>1.052002876947521</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5369775243814505</v>
+        <v>0.4969769764518361</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2491395674271159</v>
+        <v>-0.2356580936531755</v>
       </c>
     </row>
   </sheetData>
